--- a/media/reports/Stock Transfer Report.xlsx
+++ b/media/reports/Stock Transfer Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SEC_MAT_OUT_2024/00004</t>
+          <t>SEC_MAT_OUT_2024/00001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fitting Screw</t>
+          <t>Blade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,34 +486,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.00000</t>
+          <t>40.00000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12.00000</t>
+          <t>40.00000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEC_MAT_OUT_2024/00005</t>
+          <t>SEC_MAT_OUT_2024/00001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>Fitting Screw</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,26 +528,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>350.00000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>50.00000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30.00000</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SEC_MAT_OUT_2024/00005</t>
+          <t>SEC_MAT_OUT_2024/00002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fitting Screw</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,50 +570,244 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>400.00000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>25.00000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25.00000</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>SEC_MAT_OUT_2024/00002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PVC Socket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>store 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>store 2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>70.00000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEC_MAT_OUT_2024/00003</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pink Tape 6mm X 55 Mts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>store 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>store 2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25.00000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SEC_MAT_OUT_2024/00004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fitting Screw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>store 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>store 2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15.00000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>SEC_MAT_OUT_2024/00005</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>store 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>store 2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>350.00000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SEC_MAT_OUT_2024/00005</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fitting Screw</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>store 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>store 2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>400.00000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SEC_MAT_OUT_2024/00005</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>PVC Socket</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>store 1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>store 2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>600.00000</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
